--- a/fMRI Tasks/WASABI distractmap/nbackorder/N-back-2_7.xlsx
+++ b/fMRI Tasks/WASABI distractmap/nbackorder/N-back-2_7.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\canlab\WASABI_public\fMRI Tasks\WASABI distractmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dartmouth\Documents\GitHub\canlab\WASABI_public\fMRI Tasks\WASABI distractmap\nbackorder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8559B169-B6CD-400D-BDD7-47C054196568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564131A3-7F0F-45C9-AE88-892D47D88F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="38640" windowHeight="22650" xr2:uid="{6B2F0689-B3D2-44E0-A676-6F8D80A87548}"/>
+    <workbookView xWindow="5400" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{6B2F0689-B3D2-44E0-A676-6F8D80A87548}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet10" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -215,6 +216,112 @@
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Square Locations"/>
+      <sheetName val="Original 2-back"/>
+      <sheetName val="2-back practice"/>
+      <sheetName val="Part1 1-back"/>
+      <sheetName val="Part2 2-back"/>
+      <sheetName val="Part3 2-back"/>
+      <sheetName val="Part4 1-back"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>square</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>location</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>[-0.2, 0.2]</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>[0, 0.2]</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>[0.2, 0.2]</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>[-0.2, 0]</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>[0, 0]</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>[0.2, 0]</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>[-0.2, -0.2]</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>[0, -0.2]</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>[0.2, -0.2]</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -517,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D1E3BB-7DC5-47E0-A55C-C0DFF0E3E2AD}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,6 +726,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>VLOOKUP(A9,'[2]Square Locations'!A$1:$B$10,2,FALSE)</f>
+        <v>[0, -0.2]</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="str">
+        <f>VLOOKUP(A10,'[2]Square Locations'!A$1:$B$10,2,FALSE)</f>
+        <v>[-0.2, 0.2]</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(A11,'[2]Square Locations'!A$1:$B$10,2,FALSE)</f>
+        <v>[0.2, 0]</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
